--- a/bioSample/bioSample_4019.xlsx
+++ b/bioSample/bioSample_4019.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_4019.xlsx
+++ b/bioSample/bioSample_4019.xlsx
@@ -289,7 +289,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -330,7 +330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
@@ -338,7 +338,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>12</v>
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
@@ -367,7 +367,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>12</v>
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -396,7 +396,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>12</v>
@@ -417,7 +417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
@@ -425,7 +425,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>12</v>
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
@@ -454,7 +454,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5</v>
+        <v>211</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>12</v>
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>10</v>
       </c>
@@ -483,7 +483,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>12</v>
@@ -504,7 +504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>10</v>
       </c>
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>12</v>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
@@ -541,7 +541,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>12</v>
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>10</v>
       </c>
@@ -570,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>12</v>
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>10</v>
       </c>
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>12</v>
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>10</v>
       </c>
@@ -628,7 +628,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>12</v>
@@ -649,7 +649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>10</v>
       </c>
@@ -657,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>12</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>10</v>
       </c>
@@ -686,7 +686,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>12</v>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>10</v>
       </c>
@@ -715,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>12</v>
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>10</v>
       </c>
@@ -744,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>12</v>
@@ -765,7 +765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>10</v>
       </c>
@@ -773,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>12</v>
@@ -794,7 +794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>10</v>
       </c>
@@ -802,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>12</v>
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>10</v>
       </c>
@@ -831,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>12</v>

--- a/bioSample/bioSample_4019.xlsx
+++ b/bioSample/bioSample_4019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="54">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -196,6 +196,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -280,7 +281,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -288,10 +289,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.07"/>
@@ -746,6 +747,9 @@
       <c r="J13" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="K13" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -778,6 +782,9 @@
       <c r="J14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K14" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -810,6 +817,9 @@
       <c r="J15" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="K15" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -912,6 +922,9 @@
       <c r="J18" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K18" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -943,6 +956,9 @@
       </c>
       <c r="J19" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
